--- a/Code/R/Magnan/PerfSearch_Regression_nGDip25.xlsx
+++ b/Code/R/Magnan/PerfSearch_Regression_nGDip25.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TenfoldCV_Coarse" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="19">
   <si>
     <t>MCC</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>AUCPR</t>
+  </si>
+  <si>
+    <t>BEST</t>
   </si>
 </sst>
 </file>
@@ -849,23 +852,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="116170112"/>
-        <c:axId val="116156288"/>
+        <c:axId val="102685696"/>
+        <c:axId val="102724352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="116170112"/>
+        <c:axId val="102685696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116156288"/>
+        <c:crossAx val="102724352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="116156288"/>
+        <c:axId val="102724352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,7 +876,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116170112"/>
+        <c:crossAx val="102685696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -886,7 +889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1214,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1417,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,29 +1432,29 @@
     <col min="7" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1459,814 +1462,7156 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>3500</v>
+      </c>
+      <c r="C2">
+        <v>0.3</v>
+      </c>
+      <c r="D2">
+        <v>0.71754135320216195</v>
+      </c>
+      <c r="E2">
+        <v>0.44620557984297099</v>
+      </c>
+      <c r="F2">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G2">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="H2">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I2">
+        <v>0.35360970713835999</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <v>3500</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.71754135320216195</v>
+      </c>
+      <c r="E3">
+        <v>0.44620557984297099</v>
+      </c>
+      <c r="F3">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G3">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="H3">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I3">
+        <v>0.35360970713835999</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <v>3500</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0.71754135320216195</v>
+      </c>
+      <c r="E4">
+        <v>0.44620557984297099</v>
+      </c>
+      <c r="F4">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G4">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="H4">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I4">
+        <v>0.35360970713835999</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <v>3500</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>0.71754135320216195</v>
+      </c>
+      <c r="E5">
+        <v>0.44620557984297099</v>
+      </c>
+      <c r="F5">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G5">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="H5">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I5">
+        <v>0.35360970713835999</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>3500</v>
+      </c>
+      <c r="C6">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>0.71754135320216195</v>
+      </c>
+      <c r="E6">
+        <v>0.44620557984297099</v>
+      </c>
+      <c r="F6">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G6">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="H6">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I6">
+        <v>0.35360970713835999</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>3500</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>0.71754135320216195</v>
+      </c>
+      <c r="E7">
+        <v>0.44620557984297099</v>
+      </c>
+      <c r="F7">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G7">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="H7">
+        <v>0.71701388888888895</v>
+      </c>
+      <c r="I7">
+        <v>0.35360970713835999</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>3475</v>
+      </c>
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8">
+        <v>0.718325014467592</v>
+      </c>
+      <c r="E8">
+        <v>0.49647852641578899</v>
+      </c>
+      <c r="F8">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="G8">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H8">
+        <v>0.671875</v>
+      </c>
+      <c r="I8">
+        <v>0.35070290092421902</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>3475</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.718325014467592</v>
+      </c>
+      <c r="E9">
+        <v>0.49647852641578899</v>
+      </c>
+      <c r="F9">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="G9">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H9">
+        <v>0.671875</v>
+      </c>
+      <c r="I9">
+        <v>0.35070290092421902</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>3475</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>0.718325014467592</v>
+      </c>
+      <c r="E10">
+        <v>0.49647852641578899</v>
+      </c>
+      <c r="F10">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="G10">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H10">
+        <v>0.671875</v>
+      </c>
+      <c r="I10">
+        <v>0.35070290092421902</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>3475</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.718325014467592</v>
+      </c>
+      <c r="E11">
+        <v>0.49647852641578899</v>
+      </c>
+      <c r="F11">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="G11">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H11">
+        <v>0.671875</v>
+      </c>
+      <c r="I11">
+        <v>0.35070290092421902</v>
+      </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>3475</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>0.718325014467592</v>
+      </c>
+      <c r="E12">
+        <v>0.49647852641578899</v>
+      </c>
+      <c r="F12">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="G12">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H12">
+        <v>0.671875</v>
+      </c>
+      <c r="I12">
+        <v>0.35070290092421902</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>3475</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>0.718325014467592</v>
+      </c>
+      <c r="E13">
+        <v>0.49647852641578899</v>
+      </c>
+      <c r="F13">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="G13">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H13">
+        <v>0.671875</v>
+      </c>
+      <c r="I13">
+        <v>0.35070290092421902</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>3450</v>
+      </c>
+      <c r="C14">
+        <v>0.3</v>
+      </c>
+      <c r="D14">
+        <v>0.71638093171296202</v>
+      </c>
+      <c r="E14">
+        <v>0.41415292254934999</v>
+      </c>
+      <c r="F14">
+        <v>0.67100694444444398</v>
+      </c>
+      <c r="G14">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H14">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I14">
+        <v>0.34579981003407301</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>3450</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.71638093171296202</v>
+      </c>
+      <c r="E15">
+        <v>0.41415292254934999</v>
+      </c>
+      <c r="F15">
+        <v>0.67100694444444398</v>
+      </c>
+      <c r="G15">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H15">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I15">
+        <v>0.34579981003407301</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>3450</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0.71638093171296202</v>
+      </c>
+      <c r="E16">
+        <v>0.41415292254934999</v>
+      </c>
+      <c r="F16">
+        <v>0.67100694444444398</v>
+      </c>
+      <c r="G16">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H16">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I16">
+        <v>0.34579981003407301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>3450</v>
+      </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>0.71638093171296202</v>
+      </c>
+      <c r="E17">
+        <v>0.41415292254934999</v>
+      </c>
+      <c r="F17">
+        <v>0.67100694444444398</v>
+      </c>
+      <c r="G17">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H17">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I17">
+        <v>0.34579981003407301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>3450</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>0.71638093171296202</v>
+      </c>
+      <c r="E18">
+        <v>0.41415292254934999</v>
+      </c>
+      <c r="F18">
+        <v>0.67100694444444398</v>
+      </c>
+      <c r="G18">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H18">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I18">
+        <v>0.34579981003407301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>3450</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>0.71638093171296202</v>
+      </c>
+      <c r="E19">
+        <v>0.41415292254934999</v>
+      </c>
+      <c r="F19">
+        <v>0.67100694444444398</v>
+      </c>
+      <c r="G19">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="H19">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I19">
+        <v>0.34579981003407301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>3425</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <v>0.71867464795524705</v>
+      </c>
+      <c r="E20">
+        <v>0.48935651674520803</v>
+      </c>
+      <c r="F20">
+        <v>0.671875</v>
+      </c>
+      <c r="G20">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="H20">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I20">
+        <v>0.34375207219996801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>3425</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.71867464795524705</v>
+      </c>
+      <c r="E21">
+        <v>0.48935651674520803</v>
+      </c>
+      <c r="F21">
+        <v>0.671875</v>
+      </c>
+      <c r="G21">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="H21">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I21">
+        <v>0.34375207219996801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>3425</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.71867464795524705</v>
+      </c>
+      <c r="E22">
+        <v>0.48935651674520803</v>
+      </c>
+      <c r="F22">
+        <v>0.671875</v>
+      </c>
+      <c r="G22">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="H22">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I22">
+        <v>0.34375207219996801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>3425</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0.71867464795524705</v>
+      </c>
+      <c r="E23">
+        <v>0.48935651674520803</v>
+      </c>
+      <c r="F23">
+        <v>0.671875</v>
+      </c>
+      <c r="G23">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="H23">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I23">
+        <v>0.34375207219996801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>3425</v>
+      </c>
+      <c r="C24">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>0.71867464795524705</v>
+      </c>
+      <c r="E24">
+        <v>0.48935651674520803</v>
+      </c>
+      <c r="F24">
+        <v>0.671875</v>
+      </c>
+      <c r="G24">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="H24">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I24">
+        <v>0.34375207219996801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="B25">
+        <v>3425</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
+        <v>0.71867464795524705</v>
+      </c>
+      <c r="E25">
+        <v>0.48935651674520803</v>
+      </c>
+      <c r="F25">
+        <v>0.671875</v>
+      </c>
+      <c r="G25">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="H25">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I25">
+        <v>0.34375207219996801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
+      <c r="B26">
+        <v>3400</v>
+      </c>
+      <c r="C26">
+        <v>0.3</v>
+      </c>
+      <c r="D26">
+        <v>0.71888864776234596</v>
+      </c>
+      <c r="E26">
+        <v>0.46777015772916197</v>
+      </c>
+      <c r="F26">
+        <v>0.6796875</v>
+      </c>
+      <c r="G26">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H26">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I26">
+        <v>0.35966184566892301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
+      <c r="B27">
+        <v>3400</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0.71888864776234596</v>
+      </c>
+      <c r="E27">
+        <v>0.46777015772916197</v>
+      </c>
+      <c r="F27">
+        <v>0.6796875</v>
+      </c>
+      <c r="G27">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H27">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I27">
+        <v>0.35966184566892301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28">
+        <v>3400</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>0.71888864776234596</v>
+      </c>
+      <c r="E28">
+        <v>0.46777015772916197</v>
+      </c>
+      <c r="F28">
+        <v>0.6796875</v>
+      </c>
+      <c r="G28">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H28">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I28">
+        <v>0.35966184566892301</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
+      <c r="B29">
+        <v>3400</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0.71888864776234596</v>
+      </c>
+      <c r="E29">
+        <v>0.46777015772916197</v>
+      </c>
+      <c r="F29">
+        <v>0.6796875</v>
+      </c>
+      <c r="G29">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H29">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I29">
+        <v>0.35966184566892301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="B30">
+        <v>3400</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>0.71888864776234596</v>
+      </c>
+      <c r="E30">
+        <v>0.46777015772916197</v>
+      </c>
+      <c r="F30">
+        <v>0.6796875</v>
+      </c>
+      <c r="G30">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H30">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I30">
+        <v>0.35966184566892301</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
+      <c r="B31">
+        <v>3400</v>
+      </c>
+      <c r="C31">
+        <v>100</v>
+      </c>
+      <c r="D31">
+        <v>0.71888864776234596</v>
+      </c>
+      <c r="E31">
+        <v>0.46777015772916197</v>
+      </c>
+      <c r="F31">
+        <v>0.6796875</v>
+      </c>
+      <c r="G31">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H31">
+        <v>0.69965277777777801</v>
+      </c>
+      <c r="I31">
+        <v>0.35966184566892301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32">
+        <v>3375</v>
+      </c>
+      <c r="C32">
+        <v>0.3</v>
+      </c>
+      <c r="D32">
+        <v>0.72197808159722299</v>
+      </c>
+      <c r="E32">
+        <v>0.44656201769436599</v>
+      </c>
+      <c r="F32">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G32">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H32">
+        <v>0.71875</v>
+      </c>
+      <c r="I32">
+        <v>0.36216933365903198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33">
+        <v>3375</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0.72197808159722299</v>
+      </c>
+      <c r="E33">
+        <v>0.44656201769436599</v>
+      </c>
+      <c r="F33">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G33">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H33">
+        <v>0.71875</v>
+      </c>
+      <c r="I33">
+        <v>0.36216933365903198</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="B34">
+        <v>3375</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0.72197808159722299</v>
+      </c>
+      <c r="E34">
+        <v>0.44656201769436599</v>
+      </c>
+      <c r="F34">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G34">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H34">
+        <v>0.71875</v>
+      </c>
+      <c r="I34">
+        <v>0.36216933365903198</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35">
+        <v>3375</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>0.72197808159722299</v>
+      </c>
+      <c r="E35">
+        <v>0.44656201769436599</v>
+      </c>
+      <c r="F35">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G35">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H35">
+        <v>0.71875</v>
+      </c>
+      <c r="I35">
+        <v>0.36216933365903198</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36">
+        <v>3375</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>0.72197808159722299</v>
+      </c>
+      <c r="E36">
+        <v>0.44656201769436599</v>
+      </c>
+      <c r="F36">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G36">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H36">
+        <v>0.71875</v>
+      </c>
+      <c r="I36">
+        <v>0.36216933365903198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="B37">
+        <v>3375</v>
+      </c>
+      <c r="C37">
+        <v>100</v>
+      </c>
+      <c r="D37">
+        <v>0.72197808159722299</v>
+      </c>
+      <c r="E37">
+        <v>0.44656201769436599</v>
+      </c>
+      <c r="F37">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G37">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="H37">
+        <v>0.71875</v>
+      </c>
+      <c r="I37">
+        <v>0.36216933365903198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
+      <c r="B38">
+        <v>3350</v>
+      </c>
+      <c r="C38">
+        <v>0.3</v>
+      </c>
+      <c r="D38">
+        <v>0.72171284239969302</v>
+      </c>
+      <c r="E38">
+        <v>0.47466186309117098</v>
+      </c>
+      <c r="F38">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G38">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H38">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I38">
+        <v>0.36125050934487302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
+      <c r="B39">
+        <v>3350</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0.72171284239969302</v>
+      </c>
+      <c r="E39">
+        <v>0.47466186309117098</v>
+      </c>
+      <c r="F39">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G39">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H39">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I39">
+        <v>0.36125050934487302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
+      <c r="B40">
+        <v>3350</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0.72171284239969302</v>
+      </c>
+      <c r="E40">
+        <v>0.47466186309117098</v>
+      </c>
+      <c r="F40">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H40">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I40">
+        <v>0.36125050934487302</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
+      <c r="B41">
+        <v>3350</v>
+      </c>
+      <c r="C41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0.72171284239969302</v>
+      </c>
+      <c r="E41">
+        <v>0.47466186309117098</v>
+      </c>
+      <c r="F41">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G41">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H41">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I41">
+        <v>0.36125050934487302</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
+      <c r="B42">
+        <v>3350</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>0.72171284239969302</v>
+      </c>
+      <c r="E42">
+        <v>0.47466186309117098</v>
+      </c>
+      <c r="F42">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G42">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H42">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I42">
+        <v>0.36125050934487302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
+      <c r="B43">
+        <v>3350</v>
+      </c>
+      <c r="C43">
+        <v>100</v>
+      </c>
+      <c r="D43">
+        <v>0.72171284239969302</v>
+      </c>
+      <c r="E43">
+        <v>0.47466186309117098</v>
+      </c>
+      <c r="F43">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G43">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H43">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I43">
+        <v>0.36125050934487302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
+      <c r="B44">
+        <v>3325</v>
+      </c>
+      <c r="C44">
+        <v>0.3</v>
+      </c>
+      <c r="D44">
+        <v>0.72249348958333304</v>
+      </c>
+      <c r="E44">
+        <v>0.48811147162477497</v>
+      </c>
+      <c r="F44">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G44">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H44">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I44">
+        <v>0.36631999650407598</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
+      <c r="B45">
+        <v>3325</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0.72249348958333304</v>
+      </c>
+      <c r="E45">
+        <v>0.48811147162477497</v>
+      </c>
+      <c r="F45">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G45">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H45">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I45">
+        <v>0.36631999650407598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
+      <c r="B46">
+        <v>3325</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>0.72249348958333304</v>
+      </c>
+      <c r="E46">
+        <v>0.48811147162477497</v>
+      </c>
+      <c r="F46">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G46">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H46">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I46">
+        <v>0.36631999650407598</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
+      <c r="B47">
+        <v>3325</v>
+      </c>
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>0.72249348958333304</v>
+      </c>
+      <c r="E47">
+        <v>0.48811147162477497</v>
+      </c>
+      <c r="F47">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G47">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H47">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I47">
+        <v>0.36631999650407598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="B48">
+        <v>3325</v>
+      </c>
+      <c r="C48">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>0.72249348958333304</v>
+      </c>
+      <c r="E48">
+        <v>0.48811147162477497</v>
+      </c>
+      <c r="F48">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G48">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H48">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I48">
+        <v>0.36631999650407598</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>3325</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+      <c r="D49">
+        <v>0.72249348958333304</v>
+      </c>
+      <c r="E49">
+        <v>0.48811147162477497</v>
+      </c>
+      <c r="F49">
+        <v>0.68315972222222199</v>
+      </c>
+      <c r="G49">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H49">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I49">
+        <v>0.36631999650407598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>3300</v>
+      </c>
+      <c r="C50">
+        <v>0.3</v>
+      </c>
+      <c r="D50">
+        <v>0.72188765914351805</v>
+      </c>
+      <c r="E50">
+        <v>0.460270499989889</v>
+      </c>
+      <c r="F50">
+        <v>0.68142361111111105</v>
+      </c>
+      <c r="G50">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H50">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I50">
+        <v>0.36359815117906302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>3300</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0.72188765914351805</v>
+      </c>
+      <c r="E51">
+        <v>0.460270499989889</v>
+      </c>
+      <c r="F51">
+        <v>0.68142361111111105</v>
+      </c>
+      <c r="G51">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H51">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I51">
+        <v>0.36359815117906302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>3300</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>0.72188765914351805</v>
+      </c>
+      <c r="E52">
+        <v>0.460270499989889</v>
+      </c>
+      <c r="F52">
+        <v>0.68142361111111105</v>
+      </c>
+      <c r="G52">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H52">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I52">
+        <v>0.36359815117906302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>3300</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>0.72188765914351805</v>
+      </c>
+      <c r="E53">
+        <v>0.460270499989889</v>
+      </c>
+      <c r="F53">
+        <v>0.68142361111111105</v>
+      </c>
+      <c r="G53">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H53">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I53">
+        <v>0.36359815117906302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>3300</v>
+      </c>
+      <c r="C54">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>0.72188765914351805</v>
+      </c>
+      <c r="E54">
+        <v>0.460270499989889</v>
+      </c>
+      <c r="F54">
+        <v>0.68142361111111105</v>
+      </c>
+      <c r="G54">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H54">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I54">
+        <v>0.36359815117906302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>3300</v>
+      </c>
+      <c r="C55">
+        <v>100</v>
+      </c>
+      <c r="D55">
+        <v>0.72188765914351805</v>
+      </c>
+      <c r="E55">
+        <v>0.460270499989889</v>
+      </c>
+      <c r="F55">
+        <v>0.68142361111111105</v>
+      </c>
+      <c r="G55">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H55">
+        <v>0.71354166666666696</v>
+      </c>
+      <c r="I55">
+        <v>0.36359815117906302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>3275</v>
+      </c>
+      <c r="C56">
+        <v>0.3</v>
+      </c>
+      <c r="D56">
+        <v>0.72302396797839397</v>
+      </c>
+      <c r="E56">
+        <v>0.464002343933199</v>
+      </c>
+      <c r="F56">
+        <v>0.6875</v>
+      </c>
+      <c r="G56">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H56">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I56">
+        <v>0.37558004675039403</v>
+      </c>
+      <c r="J56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>3275</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0.72302396797839397</v>
+      </c>
+      <c r="E57">
+        <v>0.464002343933199</v>
+      </c>
+      <c r="F57">
+        <v>0.6875</v>
+      </c>
+      <c r="G57">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H57">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I57">
+        <v>0.37558004675039403</v>
+      </c>
+      <c r="J57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>3275</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>0.72302396797839397</v>
+      </c>
+      <c r="E58">
+        <v>0.464002343933199</v>
+      </c>
+      <c r="F58">
+        <v>0.6875</v>
+      </c>
+      <c r="G58">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H58">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I58">
+        <v>0.37558004675039403</v>
+      </c>
+      <c r="J58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>3275</v>
+      </c>
+      <c r="C59">
+        <v>10</v>
+      </c>
+      <c r="D59">
+        <v>0.72302396797839397</v>
+      </c>
+      <c r="E59">
+        <v>0.464002343933199</v>
+      </c>
+      <c r="F59">
+        <v>0.6875</v>
+      </c>
+      <c r="G59">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H59">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I59">
+        <v>0.37558004675039403</v>
+      </c>
+      <c r="J59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>3275</v>
+      </c>
+      <c r="C60">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>0.72302396797839397</v>
+      </c>
+      <c r="E60">
+        <v>0.464002343933199</v>
+      </c>
+      <c r="F60">
+        <v>0.6875</v>
+      </c>
+      <c r="G60">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H60">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I60">
+        <v>0.37558004675039403</v>
+      </c>
+      <c r="J60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>3275</v>
+      </c>
+      <c r="C61">
+        <v>100</v>
+      </c>
+      <c r="D61">
+        <v>0.72302396797839397</v>
+      </c>
+      <c r="E61">
+        <v>0.464002343933199</v>
+      </c>
+      <c r="F61">
+        <v>0.6875</v>
+      </c>
+      <c r="G61">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H61">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I61">
+        <v>0.37558004675039403</v>
+      </c>
+      <c r="J61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>3250</v>
+      </c>
+      <c r="C62">
+        <v>0.3</v>
+      </c>
+      <c r="D62">
+        <v>0.722861207561729</v>
+      </c>
+      <c r="E62">
+        <v>0.49132732658628397</v>
+      </c>
+      <c r="F62">
+        <v>0.6875</v>
+      </c>
+      <c r="G62">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H62">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I62">
+        <v>0.37500904257243201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>3250</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0.722861207561729</v>
+      </c>
+      <c r="E63">
+        <v>0.49132732658628397</v>
+      </c>
+      <c r="F63">
+        <v>0.6875</v>
+      </c>
+      <c r="G63">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H63">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I63">
+        <v>0.37500904257243201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
+      <c r="B64">
+        <v>3250</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>0.722861207561729</v>
+      </c>
+      <c r="E64">
+        <v>0.49132732658628397</v>
+      </c>
+      <c r="F64">
+        <v>0.6875</v>
+      </c>
+      <c r="G64">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H64">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I64">
+        <v>0.37500904257243201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
+      <c r="B65">
+        <v>3250</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+      <c r="D65">
+        <v>0.722861207561729</v>
+      </c>
+      <c r="E65">
+        <v>0.49132732658628397</v>
+      </c>
+      <c r="F65">
+        <v>0.6875</v>
+      </c>
+      <c r="G65">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H65">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I65">
+        <v>0.37500904257243201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
+      <c r="B66">
+        <v>3250</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>0.722861207561729</v>
+      </c>
+      <c r="E66">
+        <v>0.49132732658628397</v>
+      </c>
+      <c r="F66">
+        <v>0.6875</v>
+      </c>
+      <c r="G66">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H66">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I66">
+        <v>0.37500904257243201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
+      <c r="B67">
+        <v>3250</v>
+      </c>
+      <c r="C67">
+        <v>100</v>
+      </c>
+      <c r="D67">
+        <v>0.722861207561729</v>
+      </c>
+      <c r="E67">
+        <v>0.49132732658628397</v>
+      </c>
+      <c r="F67">
+        <v>0.6875</v>
+      </c>
+      <c r="G67">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H67">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I67">
+        <v>0.37500904257243201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
+      <c r="B68">
+        <v>3225</v>
+      </c>
+      <c r="C68">
+        <v>0.3</v>
+      </c>
+      <c r="D68">
+        <v>0.72571855709876598</v>
+      </c>
+      <c r="E68">
+        <v>0.49745648076930399</v>
+      </c>
+      <c r="F68">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G68">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H68">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I68">
+        <v>0.36985911734775501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
+      <c r="B69">
+        <v>3225</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>0.72571855709876598</v>
+      </c>
+      <c r="E69">
+        <v>0.49745648076930399</v>
+      </c>
+      <c r="F69">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G69">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H69">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I69">
+        <v>0.36985911734775501</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
+      <c r="B70">
+        <v>3225</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>0.72571855709876598</v>
+      </c>
+      <c r="E70">
+        <v>0.49745648076930399</v>
+      </c>
+      <c r="F70">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G70">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H70">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I70">
+        <v>0.36985911734775501</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
+      <c r="B71">
+        <v>3225</v>
+      </c>
+      <c r="C71">
+        <v>10</v>
+      </c>
+      <c r="D71">
+        <v>0.72571855709876598</v>
+      </c>
+      <c r="E71">
+        <v>0.49745648076930399</v>
+      </c>
+      <c r="F71">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G71">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H71">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I71">
+        <v>0.36985911734775501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
+      <c r="B72">
+        <v>3225</v>
+      </c>
+      <c r="C72">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>0.72571855709876598</v>
+      </c>
+      <c r="E72">
+        <v>0.49745648076930399</v>
+      </c>
+      <c r="F72">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G72">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H72">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I72">
+        <v>0.36985911734775501</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
+      <c r="B73">
+        <v>3225</v>
+      </c>
+      <c r="C73">
+        <v>100</v>
+      </c>
+      <c r="D73">
+        <v>0.72571855709876598</v>
+      </c>
+      <c r="E73">
+        <v>0.49745648076930399</v>
+      </c>
+      <c r="F73">
+        <v>0.68489583333333304</v>
+      </c>
+      <c r="G73">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="H73">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I73">
+        <v>0.36985911734775501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
+      <c r="B74">
+        <v>3200</v>
+      </c>
+      <c r="C74">
+        <v>0.3</v>
+      </c>
+      <c r="D74">
+        <v>0.72090205439814803</v>
+      </c>
+      <c r="E74">
+        <v>0.45349745805262798</v>
+      </c>
+      <c r="F74">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G74">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H74">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I74">
+        <v>0.36537932683792401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
+      <c r="B75">
+        <v>3200</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0.72090205439814803</v>
+      </c>
+      <c r="E75">
+        <v>0.45349745805262798</v>
+      </c>
+      <c r="F75">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G75">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H75">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I75">
+        <v>0.36537932683792401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
+      <c r="B76">
+        <v>3200</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>0.72090205439814803</v>
+      </c>
+      <c r="E76">
+        <v>0.45349745805262798</v>
+      </c>
+      <c r="F76">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G76">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H76">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I76">
+        <v>0.36537932683792401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
+      <c r="B77">
+        <v>3200</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>0.72090205439814803</v>
+      </c>
+      <c r="E77">
+        <v>0.45349745805262798</v>
+      </c>
+      <c r="F77">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G77">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H77">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I77">
+        <v>0.36537932683792401</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
+      <c r="B78">
+        <v>3200</v>
+      </c>
+      <c r="C78">
+        <v>30</v>
+      </c>
+      <c r="D78">
+        <v>0.72090205439814803</v>
+      </c>
+      <c r="E78">
+        <v>0.45349745805262798</v>
+      </c>
+      <c r="F78">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G78">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H78">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I78">
+        <v>0.36537932683792401</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
+      <c r="B79">
+        <v>3200</v>
+      </c>
+      <c r="C79">
+        <v>100</v>
+      </c>
+      <c r="D79">
+        <v>0.72090205439814803</v>
+      </c>
+      <c r="E79">
+        <v>0.45349745805262798</v>
+      </c>
+      <c r="F79">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G79">
+        <v>0.64930555555555602</v>
+      </c>
+      <c r="H79">
+        <v>0.71527777777777801</v>
+      </c>
+      <c r="I79">
+        <v>0.36537932683792401</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
+      <c r="B80">
+        <v>3175</v>
+      </c>
+      <c r="C80">
+        <v>0.3</v>
+      </c>
+      <c r="D80">
+        <v>0.71925937982253096</v>
+      </c>
+      <c r="E80">
+        <v>0.44007827848111403</v>
+      </c>
+      <c r="F80">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G80">
+        <v>0.640625</v>
+      </c>
+      <c r="H80">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I80">
+        <v>0.36585587937810199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
+      <c r="B81">
+        <v>3175</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0.71925937982253096</v>
+      </c>
+      <c r="E81">
+        <v>0.44007827848111403</v>
+      </c>
+      <c r="F81">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G81">
+        <v>0.640625</v>
+      </c>
+      <c r="H81">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I81">
+        <v>0.36585587937810199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
+      <c r="B82">
+        <v>3175</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>0.71925937982253096</v>
+      </c>
+      <c r="E82">
+        <v>0.44007827848111403</v>
+      </c>
+      <c r="F82">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G82">
+        <v>0.640625</v>
+      </c>
+      <c r="H82">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I82">
+        <v>0.36585587937810199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
+      <c r="B83">
+        <v>3175</v>
+      </c>
+      <c r="C83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>0.71925937982253096</v>
+      </c>
+      <c r="E83">
+        <v>0.44007827848111403</v>
+      </c>
+      <c r="F83">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G83">
+        <v>0.640625</v>
+      </c>
+      <c r="H83">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I83">
+        <v>0.36585587937810199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
+      <c r="B84">
+        <v>3175</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>0.71925937982253096</v>
+      </c>
+      <c r="E84">
+        <v>0.44007827848111403</v>
+      </c>
+      <c r="F84">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G84">
+        <v>0.640625</v>
+      </c>
+      <c r="H84">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I84">
+        <v>0.36585587937810199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
+      <c r="B85">
+        <v>3175</v>
+      </c>
+      <c r="C85">
+        <v>100</v>
+      </c>
+      <c r="D85">
+        <v>0.71925937982253096</v>
+      </c>
+      <c r="E85">
+        <v>0.44007827848111403</v>
+      </c>
+      <c r="F85">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="G85">
+        <v>0.640625</v>
+      </c>
+      <c r="H85">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I85">
+        <v>0.36585587937810199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
+      <c r="B86">
+        <v>3150</v>
+      </c>
+      <c r="C86">
+        <v>0.3</v>
+      </c>
+      <c r="D86">
+        <v>0.71648341049382702</v>
+      </c>
+      <c r="E86">
+        <v>0.45586258419287501</v>
+      </c>
+      <c r="F86">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G86">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="H86">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I86">
+        <v>0.35486043161491798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
+      <c r="B87">
+        <v>3150</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0.71648341049382702</v>
+      </c>
+      <c r="E87">
+        <v>0.45586258419287501</v>
+      </c>
+      <c r="F87">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G87">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="H87">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I87">
+        <v>0.35486043161491798</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
+      <c r="B88">
+        <v>3150</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88">
+        <v>0.71648341049382702</v>
+      </c>
+      <c r="E88">
+        <v>0.45586258419287501</v>
+      </c>
+      <c r="F88">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G88">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="H88">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I88">
+        <v>0.35486043161491798</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
+      <c r="B89">
+        <v>3150</v>
+      </c>
+      <c r="C89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>0.71648341049382702</v>
+      </c>
+      <c r="E89">
+        <v>0.45586258419287501</v>
+      </c>
+      <c r="F89">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G89">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="H89">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I89">
+        <v>0.35486043161491798</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
+      <c r="B90">
+        <v>3150</v>
+      </c>
+      <c r="C90">
+        <v>30</v>
+      </c>
+      <c r="D90">
+        <v>0.71648341049382702</v>
+      </c>
+      <c r="E90">
+        <v>0.45586258419287501</v>
+      </c>
+      <c r="F90">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G90">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="H90">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I90">
+        <v>0.35486043161491798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
+      <c r="B91">
+        <v>3150</v>
+      </c>
+      <c r="C91">
+        <v>100</v>
+      </c>
+      <c r="D91">
+        <v>0.71648341049382702</v>
+      </c>
+      <c r="E91">
+        <v>0.45586258419287501</v>
+      </c>
+      <c r="F91">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G91">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="H91">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="I91">
+        <v>0.35486043161491798</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
+      <c r="B92">
+        <v>3125</v>
+      </c>
+      <c r="C92">
+        <v>0.3</v>
+      </c>
+      <c r="D92">
+        <v>0.71558822820216095</v>
+      </c>
+      <c r="E92">
+        <v>0.50112049519572699</v>
+      </c>
+      <c r="F92">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G92">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H92">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="I92">
+        <v>0.35430338416516399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
+      <c r="B93">
+        <v>3125</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0.71558822820216095</v>
+      </c>
+      <c r="E93">
+        <v>0.50112049519572699</v>
+      </c>
+      <c r="F93">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G93">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H93">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="I93">
+        <v>0.35430338416516399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
+      <c r="B94">
+        <v>3125</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94">
+        <v>0.71558822820216095</v>
+      </c>
+      <c r="E94">
+        <v>0.50112049519572699</v>
+      </c>
+      <c r="F94">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G94">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H94">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="I94">
+        <v>0.35430338416516399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
+      <c r="B95">
+        <v>3125</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>0.71558822820216095</v>
+      </c>
+      <c r="E95">
+        <v>0.50112049519572699</v>
+      </c>
+      <c r="F95">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G95">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H95">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="I95">
+        <v>0.35430338416516399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
+      <c r="B96">
+        <v>3125</v>
+      </c>
+      <c r="C96">
+        <v>30</v>
+      </c>
+      <c r="D96">
+        <v>0.71558822820216095</v>
+      </c>
+      <c r="E96">
+        <v>0.50112049519572699</v>
+      </c>
+      <c r="F96">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G96">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H96">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="I96">
+        <v>0.35430338416516399</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
+      <c r="B97">
+        <v>3125</v>
+      </c>
+      <c r="C97">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>0.71558822820216095</v>
+      </c>
+      <c r="E97">
+        <v>0.50112049519572699</v>
+      </c>
+      <c r="F97">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="G97">
+        <v>0.69097222222222199</v>
+      </c>
+      <c r="H97">
+        <v>0.66319444444444398</v>
+      </c>
+      <c r="I97">
+        <v>0.35430338416516399</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
+      <c r="B98">
+        <v>3100</v>
+      </c>
+      <c r="C98">
+        <v>0.3</v>
+      </c>
+      <c r="D98">
+        <v>0.720073181905864</v>
+      </c>
+      <c r="E98">
+        <v>0.44259595843639798</v>
+      </c>
+      <c r="F98">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G98">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="H98">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I98">
+        <v>0.357306106837601</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
+      <c r="B99">
+        <v>3100</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>0.720073181905864</v>
+      </c>
+      <c r="E99">
+        <v>0.44259595843639798</v>
+      </c>
+      <c r="F99">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G99">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="H99">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I99">
+        <v>0.357306106837601</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
+      <c r="B100">
+        <v>3100</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>0.720073181905864</v>
+      </c>
+      <c r="E100">
+        <v>0.44259595843639798</v>
+      </c>
+      <c r="F100">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G100">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="H100">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I100">
+        <v>0.357306106837601</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
+      <c r="B101">
+        <v>3100</v>
+      </c>
+      <c r="C101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>0.720073181905864</v>
+      </c>
+      <c r="E101">
+        <v>0.44259595843639798</v>
+      </c>
+      <c r="F101">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G101">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="H101">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I101">
+        <v>0.357306106837601</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
+      <c r="B102">
+        <v>3100</v>
+      </c>
+      <c r="C102">
+        <v>30</v>
+      </c>
+      <c r="D102">
+        <v>0.720073181905864</v>
+      </c>
+      <c r="E102">
+        <v>0.44259595843639798</v>
+      </c>
+      <c r="F102">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G102">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="H102">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I102">
+        <v>0.357306106837601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
+      <c r="B103">
+        <v>3100</v>
+      </c>
+      <c r="C103">
+        <v>100</v>
+      </c>
+      <c r="D103">
+        <v>0.720073181905864</v>
+      </c>
+      <c r="E103">
+        <v>0.44259595843639798</v>
+      </c>
+      <c r="F103">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G103">
+        <v>0.63368055555555602</v>
+      </c>
+      <c r="H103">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="I103">
+        <v>0.357306106837601</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
+      <c r="B104">
+        <v>3075</v>
+      </c>
+      <c r="C104">
+        <v>0.3</v>
+      </c>
+      <c r="D104">
+        <v>0.72246937692901103</v>
+      </c>
+      <c r="E104">
+        <v>0.50049095401439303</v>
+      </c>
+      <c r="F104">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G104">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="H104">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I104">
+        <v>0.35613954862056502</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
+      <c r="B105">
+        <v>3075</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>0.72246937692901103</v>
+      </c>
+      <c r="E105">
+        <v>0.50049095401439303</v>
+      </c>
+      <c r="F105">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G105">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="H105">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I105">
+        <v>0.35613954862056502</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
+      <c r="B106">
+        <v>3075</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106">
+        <v>0.72246937692901103</v>
+      </c>
+      <c r="E106">
+        <v>0.50049095401439303</v>
+      </c>
+      <c r="F106">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G106">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="H106">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I106">
+        <v>0.35613954862056502</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
+      <c r="B107">
+        <v>3075</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+      <c r="D107">
+        <v>0.72246937692901103</v>
+      </c>
+      <c r="E107">
+        <v>0.50049095401439303</v>
+      </c>
+      <c r="F107">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G107">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="H107">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I107">
+        <v>0.35613954862056502</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
+      <c r="B108">
+        <v>3075</v>
+      </c>
+      <c r="C108">
+        <v>30</v>
+      </c>
+      <c r="D108">
+        <v>0.72246937692901103</v>
+      </c>
+      <c r="E108">
+        <v>0.50049095401439303</v>
+      </c>
+      <c r="F108">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G108">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="H108">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I108">
+        <v>0.35613954862056502</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
+      <c r="B109">
+        <v>3075</v>
+      </c>
+      <c r="C109">
+        <v>100</v>
+      </c>
+      <c r="D109">
+        <v>0.72246937692901103</v>
+      </c>
+      <c r="E109">
+        <v>0.50049095401439303</v>
+      </c>
+      <c r="F109">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G109">
+        <v>0.69618055555555602</v>
+      </c>
+      <c r="H109">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I109">
+        <v>0.35613954862056502</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
+      <c r="B110">
+        <v>3050</v>
+      </c>
+      <c r="C110">
+        <v>0.3</v>
+      </c>
+      <c r="D110">
+        <v>0.72263816550925897</v>
+      </c>
+      <c r="E110">
+        <v>0.48575995655741999</v>
+      </c>
+      <c r="F110">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G110">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H110">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I110">
+        <v>0.36111328796764303</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
+      <c r="B111">
+        <v>3050</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0.72263816550925897</v>
+      </c>
+      <c r="E111">
+        <v>0.48575995655741999</v>
+      </c>
+      <c r="F111">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G111">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H111">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I111">
+        <v>0.36111328796764303</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
+      <c r="B112">
+        <v>3050</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112">
+        <v>0.72263816550925897</v>
+      </c>
+      <c r="E112">
+        <v>0.48575995655741999</v>
+      </c>
+      <c r="F112">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G112">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H112">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I112">
+        <v>0.36111328796764303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
+      <c r="B113">
+        <v>3050</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>0.72263816550925897</v>
+      </c>
+      <c r="E113">
+        <v>0.48575995655741999</v>
+      </c>
+      <c r="F113">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G113">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H113">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I113">
+        <v>0.36111328796764303</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
+      <c r="B114">
+        <v>3050</v>
+      </c>
+      <c r="C114">
+        <v>30</v>
+      </c>
+      <c r="D114">
+        <v>0.72263816550925897</v>
+      </c>
+      <c r="E114">
+        <v>0.48575995655741999</v>
+      </c>
+      <c r="F114">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G114">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H114">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I114">
+        <v>0.36111328796764303</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
+      <c r="B115">
+        <v>3050</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <v>0.72263816550925897</v>
+      </c>
+      <c r="E115">
+        <v>0.48575995655741999</v>
+      </c>
+      <c r="F115">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="G115">
+        <v>0.67881944444444398</v>
+      </c>
+      <c r="H115">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="I115">
+        <v>0.36111328796764303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
+      <c r="B116">
+        <v>3025</v>
+      </c>
+      <c r="C116">
+        <v>0.3</v>
+      </c>
+      <c r="D116">
+        <v>0.72453703703703598</v>
+      </c>
+      <c r="E116">
+        <v>0.421612934397398</v>
+      </c>
+      <c r="F116">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G116">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H116">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I116">
+        <v>0.35912612345505102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
+      <c r="B117">
+        <v>3025</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0.72453703703703598</v>
+      </c>
+      <c r="E117">
+        <v>0.421612934397398</v>
+      </c>
+      <c r="F117">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G117">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H117">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I117">
+        <v>0.35912612345505102</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
+      <c r="B118">
+        <v>3025</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <v>0.72453703703703598</v>
+      </c>
+      <c r="E118">
+        <v>0.421612934397398</v>
+      </c>
+      <c r="F118">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G118">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H118">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I118">
+        <v>0.35912612345505102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
+      <c r="B119">
+        <v>3025</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>0.72453703703703598</v>
+      </c>
+      <c r="E119">
+        <v>0.421612934397398</v>
+      </c>
+      <c r="F119">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G119">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H119">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I119">
+        <v>0.35912612345505102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
+      <c r="B120">
+        <v>3025</v>
+      </c>
+      <c r="C120">
+        <v>30</v>
+      </c>
+      <c r="D120">
+        <v>0.72453703703703598</v>
+      </c>
+      <c r="E120">
+        <v>0.421612934397398</v>
+      </c>
+      <c r="F120">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G120">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H120">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I120">
+        <v>0.35912612345505102</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
+      <c r="B121">
+        <v>3025</v>
+      </c>
+      <c r="C121">
+        <v>100</v>
+      </c>
+      <c r="D121">
+        <v>0.72453703703703598</v>
+      </c>
+      <c r="E121">
+        <v>0.421612934397398</v>
+      </c>
+      <c r="F121">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G121">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="H121">
+        <v>0.74479166666666696</v>
+      </c>
+      <c r="I121">
+        <v>0.35912612345505102</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
+      <c r="B122">
+        <v>3000</v>
+      </c>
+      <c r="C122">
+        <v>0.3</v>
+      </c>
+      <c r="D122">
+        <v>0.72184244791666696</v>
+      </c>
+      <c r="E122">
+        <v>0.52117572328781203</v>
+      </c>
+      <c r="F122">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G122">
+        <v>0.703125</v>
+      </c>
+      <c r="H122">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I122">
+        <v>0.35635471594795298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
+      <c r="B123">
+        <v>3000</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123">
+        <v>0.72184244791666696</v>
+      </c>
+      <c r="E123">
+        <v>0.52117572328781203</v>
+      </c>
+      <c r="F123">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G123">
+        <v>0.703125</v>
+      </c>
+      <c r="H123">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I123">
+        <v>0.35635471594795298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
+      <c r="B124">
+        <v>3000</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>0.72184244791666696</v>
+      </c>
+      <c r="E124">
+        <v>0.52117572328781203</v>
+      </c>
+      <c r="F124">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G124">
+        <v>0.703125</v>
+      </c>
+      <c r="H124">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I124">
+        <v>0.35635471594795298</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
+      <c r="B125">
+        <v>3000</v>
+      </c>
+      <c r="C125">
+        <v>10</v>
+      </c>
+      <c r="D125">
+        <v>0.72184244791666696</v>
+      </c>
+      <c r="E125">
+        <v>0.52117572328781203</v>
+      </c>
+      <c r="F125">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G125">
+        <v>0.703125</v>
+      </c>
+      <c r="H125">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I125">
+        <v>0.35635471594795298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
+      <c r="B126">
+        <v>3000</v>
+      </c>
+      <c r="C126">
+        <v>30</v>
+      </c>
+      <c r="D126">
+        <v>0.72184244791666696</v>
+      </c>
+      <c r="E126">
+        <v>0.52117572328781203</v>
+      </c>
+      <c r="F126">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G126">
+        <v>0.703125</v>
+      </c>
+      <c r="H126">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I126">
+        <v>0.35635471594795298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
+      <c r="B127">
+        <v>3000</v>
+      </c>
+      <c r="C127">
+        <v>100</v>
+      </c>
+      <c r="D127">
+        <v>0.72184244791666696</v>
+      </c>
+      <c r="E127">
+        <v>0.52117572328781203</v>
+      </c>
+      <c r="F127">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G127">
+        <v>0.703125</v>
+      </c>
+      <c r="H127">
+        <v>0.65277777777777801</v>
+      </c>
+      <c r="I127">
+        <v>0.35635471594795298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
+      <c r="B128">
+        <v>2975</v>
+      </c>
+      <c r="C128">
+        <v>0.3</v>
+      </c>
+      <c r="D128">
+        <v>0.72057954764660603</v>
+      </c>
+      <c r="E128">
+        <v>0.43729418377892398</v>
+      </c>
+      <c r="F128">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G128">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H128">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="I128">
+        <v>0.35805088327228701</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
+      <c r="B129">
+        <v>2975</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0.72057954764660603</v>
+      </c>
+      <c r="E129">
+        <v>0.43729418377892398</v>
+      </c>
+      <c r="F129">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G129">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H129">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="I129">
+        <v>0.35805088327228701</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
+      <c r="B130">
+        <v>2975</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130">
+        <v>0.72057954764660603</v>
+      </c>
+      <c r="E130">
+        <v>0.43729418377892398</v>
+      </c>
+      <c r="F130">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G130">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H130">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="I130">
+        <v>0.35805088327228701</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
+      <c r="B131">
+        <v>2975</v>
+      </c>
+      <c r="C131">
+        <v>10</v>
+      </c>
+      <c r="D131">
+        <v>0.72057954764660603</v>
+      </c>
+      <c r="E131">
+        <v>0.43729418377892398</v>
+      </c>
+      <c r="F131">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G131">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H131">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="I131">
+        <v>0.35805088327228701</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
+      <c r="B132">
+        <v>2975</v>
+      </c>
+      <c r="C132">
+        <v>30</v>
+      </c>
+      <c r="D132">
+        <v>0.72057954764660603</v>
+      </c>
+      <c r="E132">
+        <v>0.43729418377892398</v>
+      </c>
+      <c r="F132">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G132">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H132">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="I132">
+        <v>0.35805088327228701</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
+      <c r="B133">
+        <v>2975</v>
+      </c>
+      <c r="C133">
+        <v>100</v>
+      </c>
+      <c r="D133">
+        <v>0.72057954764660603</v>
+      </c>
+      <c r="E133">
+        <v>0.43729418377892398</v>
+      </c>
+      <c r="F133">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G133">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H133">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="I133">
+        <v>0.35805088327228701</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1">
+      <c r="B134">
+        <v>2950</v>
+      </c>
+      <c r="C134">
+        <v>0.3</v>
+      </c>
+      <c r="D134">
+        <v>0.71615788966049398</v>
+      </c>
+      <c r="E134">
+        <v>0.44046430005725901</v>
+      </c>
+      <c r="F134">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G134">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H134">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I134">
+        <v>0.34899603014038599</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
+      <c r="B135">
+        <v>2950</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0.71615788966049398</v>
+      </c>
+      <c r="E135">
+        <v>0.44046430005725901</v>
+      </c>
+      <c r="F135">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G135">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H135">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I135">
+        <v>0.34899603014038599</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
+      <c r="B136">
+        <v>2950</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136">
+        <v>0.71615788966049398</v>
+      </c>
+      <c r="E136">
+        <v>0.44046430005725901</v>
+      </c>
+      <c r="F136">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G136">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H136">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I136">
+        <v>0.34899603014038599</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
+      <c r="B137">
+        <v>2950</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+      <c r="D137">
+        <v>0.71615788966049398</v>
+      </c>
+      <c r="E137">
+        <v>0.44046430005725901</v>
+      </c>
+      <c r="F137">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G137">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H137">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I137">
+        <v>0.34899603014038599</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
+      <c r="B138">
+        <v>2950</v>
+      </c>
+      <c r="C138">
+        <v>30</v>
+      </c>
+      <c r="D138">
+        <v>0.71615788966049398</v>
+      </c>
+      <c r="E138">
+        <v>0.44046430005725901</v>
+      </c>
+      <c r="F138">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G138">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H138">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I138">
+        <v>0.34899603014038599</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139">
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
+      <c r="B139">
+        <v>2950</v>
+      </c>
+      <c r="C139">
+        <v>100</v>
+      </c>
+      <c r="D139">
+        <v>0.71615788966049398</v>
+      </c>
+      <c r="E139">
+        <v>0.44046430005725901</v>
+      </c>
+      <c r="F139">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G139">
+        <v>0.62326388888888895</v>
+      </c>
+      <c r="H139">
+        <v>0.72395833333333304</v>
+      </c>
+      <c r="I139">
+        <v>0.34899603014038599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140">
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
+      <c r="B140">
+        <v>2925</v>
+      </c>
+      <c r="C140">
+        <v>0.3</v>
+      </c>
+      <c r="D140">
+        <v>0.71696566358024805</v>
+      </c>
+      <c r="E140">
+        <v>0.46154690881178101</v>
+      </c>
+      <c r="F140">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G140">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="H140">
+        <v>0.703125</v>
+      </c>
+      <c r="I140">
+        <v>0.34782871705128199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141">
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
+      <c r="B141">
+        <v>2925</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0.71696566358024805</v>
+      </c>
+      <c r="E141">
+        <v>0.46154690881178101</v>
+      </c>
+      <c r="F141">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G141">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="H141">
+        <v>0.703125</v>
+      </c>
+      <c r="I141">
+        <v>0.34782871705128199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142">
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
+      <c r="B142">
+        <v>2925</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142">
+        <v>0.71696566358024805</v>
+      </c>
+      <c r="E142">
+        <v>0.46154690881178101</v>
+      </c>
+      <c r="F142">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G142">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="H142">
+        <v>0.703125</v>
+      </c>
+      <c r="I142">
+        <v>0.34782871705128199</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143">
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
+      <c r="B143">
+        <v>2925</v>
+      </c>
+      <c r="C143">
+        <v>10</v>
+      </c>
+      <c r="D143">
+        <v>0.71696566358024805</v>
+      </c>
+      <c r="E143">
+        <v>0.46154690881178101</v>
+      </c>
+      <c r="F143">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G143">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="H143">
+        <v>0.703125</v>
+      </c>
+      <c r="I143">
+        <v>0.34782871705128199</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="B144">
+        <v>2925</v>
+      </c>
+      <c r="C144">
+        <v>30</v>
+      </c>
+      <c r="D144">
+        <v>0.71696566358024805</v>
+      </c>
+      <c r="E144">
+        <v>0.46154690881178101</v>
+      </c>
+      <c r="F144">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G144">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="H144">
+        <v>0.703125</v>
+      </c>
+      <c r="I144">
+        <v>0.34782871705128199</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
+      <c r="B145">
+        <v>2925</v>
+      </c>
+      <c r="C145">
+        <v>100</v>
+      </c>
+      <c r="D145">
+        <v>0.71696566358024805</v>
+      </c>
+      <c r="E145">
+        <v>0.46154690881178101</v>
+      </c>
+      <c r="F145">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G145">
+        <v>0.64409722222222199</v>
+      </c>
+      <c r="H145">
+        <v>0.703125</v>
+      </c>
+      <c r="I145">
+        <v>0.34782871705128199</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
+      <c r="B146">
+        <v>2900</v>
+      </c>
+      <c r="C146">
+        <v>0.3</v>
+      </c>
+      <c r="D146">
+        <v>0.71637791763117398</v>
+      </c>
+      <c r="E146">
+        <v>0.50940081145874505</v>
+      </c>
+      <c r="F146">
+        <v>0.671875</v>
+      </c>
+      <c r="G146">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H146">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I146">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
+      <c r="B147">
+        <v>2900</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147">
+        <v>0.71637791763117398</v>
+      </c>
+      <c r="E147">
+        <v>0.50940081145874505</v>
+      </c>
+      <c r="F147">
+        <v>0.671875</v>
+      </c>
+      <c r="G147">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H147">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I147">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
+      <c r="B148">
+        <v>2900</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148">
+        <v>0.71637791763117398</v>
+      </c>
+      <c r="E148">
+        <v>0.50940081145874505</v>
+      </c>
+      <c r="F148">
+        <v>0.671875</v>
+      </c>
+      <c r="G148">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H148">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I148">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
+      <c r="B149">
+        <v>2900</v>
+      </c>
+      <c r="C149">
+        <v>10</v>
+      </c>
+      <c r="D149">
+        <v>0.71637791763117398</v>
+      </c>
+      <c r="E149">
+        <v>0.50940081145874505</v>
+      </c>
+      <c r="F149">
+        <v>0.671875</v>
+      </c>
+      <c r="G149">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H149">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I149">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
+      <c r="B150">
+        <v>2900</v>
+      </c>
+      <c r="C150">
+        <v>30</v>
+      </c>
+      <c r="D150">
+        <v>0.71637791763117398</v>
+      </c>
+      <c r="E150">
+        <v>0.50940081145874505</v>
+      </c>
+      <c r="F150">
+        <v>0.671875</v>
+      </c>
+      <c r="G150">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H150">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I150">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151">
         <v>150</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
+      <c r="B151">
+        <v>2900</v>
+      </c>
+      <c r="C151">
+        <v>100</v>
+      </c>
+      <c r="D151">
+        <v>0.71637791763117398</v>
+      </c>
+      <c r="E151">
+        <v>0.50940081145874505</v>
+      </c>
+      <c r="F151">
+        <v>0.671875</v>
+      </c>
+      <c r="G151">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="H151">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="I151">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152">
         <v>151</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
+      <c r="B152">
+        <v>2875</v>
+      </c>
+      <c r="C152">
+        <v>0.3</v>
+      </c>
+      <c r="D152">
+        <v>0.71730022665895199</v>
+      </c>
+      <c r="E152">
+        <v>0.47771703639491098</v>
+      </c>
+      <c r="F152">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G152">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H152">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I152">
+        <v>0.35262244910774299</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153">
         <v>152</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
+      <c r="B153">
+        <v>2875</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153">
+        <v>0.71730022665895199</v>
+      </c>
+      <c r="E153">
+        <v>0.47771703639491098</v>
+      </c>
+      <c r="F153">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G153">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H153">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I153">
+        <v>0.35262244910774299</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154">
         <v>153</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
+      <c r="B154">
+        <v>2875</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154">
+        <v>0.71730022665895199</v>
+      </c>
+      <c r="E154">
+        <v>0.47771703639491098</v>
+      </c>
+      <c r="F154">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G154">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H154">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I154">
+        <v>0.35262244910774299</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155">
         <v>154</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
+      <c r="B155">
+        <v>2875</v>
+      </c>
+      <c r="C155">
+        <v>10</v>
+      </c>
+      <c r="D155">
+        <v>0.71730022665895199</v>
+      </c>
+      <c r="E155">
+        <v>0.47771703639491098</v>
+      </c>
+      <c r="F155">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G155">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H155">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I155">
+        <v>0.35262244910774299</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
+      <c r="B156">
+        <v>2875</v>
+      </c>
+      <c r="C156">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>0.71730022665895199</v>
+      </c>
+      <c r="E156">
+        <v>0.47771703639491098</v>
+      </c>
+      <c r="F156">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G156">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H156">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I156">
+        <v>0.35262244910774299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157">
         <v>156</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
+      <c r="B157">
+        <v>2875</v>
+      </c>
+      <c r="C157">
+        <v>100</v>
+      </c>
+      <c r="D157">
+        <v>0.71730022665895199</v>
+      </c>
+      <c r="E157">
+        <v>0.47771703639491098</v>
+      </c>
+      <c r="F157">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G157">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H157">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I157">
+        <v>0.35262244910774299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158">
         <v>157</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
+      <c r="B158">
+        <v>2850</v>
+      </c>
+      <c r="C158">
+        <v>0.3</v>
+      </c>
+      <c r="D158">
+        <v>0.71818335262345601</v>
+      </c>
+      <c r="E158">
+        <v>0.48089341088145199</v>
+      </c>
+      <c r="F158">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G158">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="H158">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I158">
+        <v>0.35609656190683397</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159">
         <v>158</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
+      <c r="B159">
+        <v>2850</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159">
+        <v>0.71818335262345601</v>
+      </c>
+      <c r="E159">
+        <v>0.48089341088145199</v>
+      </c>
+      <c r="F159">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G159">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="H159">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I159">
+        <v>0.35609656190683397</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
+      <c r="B160">
+        <v>2850</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160">
+        <v>0.71818335262345601</v>
+      </c>
+      <c r="E160">
+        <v>0.48089341088145199</v>
+      </c>
+      <c r="F160">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G160">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="H160">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I160">
+        <v>0.35609656190683397</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
+      <c r="B161">
+        <v>2850</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>0.71818335262345601</v>
+      </c>
+      <c r="E161">
+        <v>0.48089341088145199</v>
+      </c>
+      <c r="F161">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G161">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="H161">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I161">
+        <v>0.35609656190683397</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
+      <c r="B162">
+        <v>2850</v>
+      </c>
+      <c r="C162">
+        <v>30</v>
+      </c>
+      <c r="D162">
+        <v>0.71818335262345601</v>
+      </c>
+      <c r="E162">
+        <v>0.48089341088145199</v>
+      </c>
+      <c r="F162">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G162">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="H162">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I162">
+        <v>0.35609656190683397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163">
         <v>162</v>
       </c>
+      <c r="B163">
+        <v>2850</v>
+      </c>
+      <c r="C163">
+        <v>100</v>
+      </c>
+      <c r="D163">
+        <v>0.71818335262345601</v>
+      </c>
+      <c r="E163">
+        <v>0.48089341088145199</v>
+      </c>
+      <c r="F163">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G163">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="H163">
+        <v>0.69444444444444398</v>
+      </c>
+      <c r="I163">
+        <v>0.35609656190683397</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2825</v>
+      </c>
+      <c r="C164">
+        <v>0.3</v>
+      </c>
+      <c r="D164">
+        <v>0.71621817129629595</v>
+      </c>
+      <c r="E164">
+        <v>0.49803118483678999</v>
+      </c>
+      <c r="F164">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G164">
+        <v>0.671875</v>
+      </c>
+      <c r="H164">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="I164">
+        <v>0.35244383448750399</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2825</v>
+      </c>
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165">
+        <v>0.71621817129629595</v>
+      </c>
+      <c r="E165">
+        <v>0.49803118483678999</v>
+      </c>
+      <c r="F165">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G165">
+        <v>0.671875</v>
+      </c>
+      <c r="H165">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="I165">
+        <v>0.35244383448750399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2825</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>0.71621817129629595</v>
+      </c>
+      <c r="E166">
+        <v>0.49803118483678999</v>
+      </c>
+      <c r="F166">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G166">
+        <v>0.671875</v>
+      </c>
+      <c r="H166">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="I166">
+        <v>0.35244383448750399</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2825</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>0.71621817129629595</v>
+      </c>
+      <c r="E167">
+        <v>0.49803118483678999</v>
+      </c>
+      <c r="F167">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G167">
+        <v>0.671875</v>
+      </c>
+      <c r="H167">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="I167">
+        <v>0.35244383448750399</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2825</v>
+      </c>
+      <c r="C168">
+        <v>30</v>
+      </c>
+      <c r="D168">
+        <v>0.71621817129629595</v>
+      </c>
+      <c r="E168">
+        <v>0.49803118483678999</v>
+      </c>
+      <c r="F168">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G168">
+        <v>0.671875</v>
+      </c>
+      <c r="H168">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="I168">
+        <v>0.35244383448750399</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2825</v>
+      </c>
+      <c r="C169">
+        <v>100</v>
+      </c>
+      <c r="D169">
+        <v>0.71621817129629595</v>
+      </c>
+      <c r="E169">
+        <v>0.49803118483678999</v>
+      </c>
+      <c r="F169">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G169">
+        <v>0.671875</v>
+      </c>
+      <c r="H169">
+        <v>0.68055555555555602</v>
+      </c>
+      <c r="I169">
+        <v>0.35244383448750399</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2800</v>
+      </c>
+      <c r="C170">
+        <v>0.3</v>
+      </c>
+      <c r="D170">
+        <v>0.71638695987654299</v>
+      </c>
+      <c r="E170">
+        <v>0.506457499124778</v>
+      </c>
+      <c r="F170">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G170">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H170">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I170">
+        <v>0.355916187536642</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2800</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171">
+        <v>0.71638695987654299</v>
+      </c>
+      <c r="E171">
+        <v>0.506457499124778</v>
+      </c>
+      <c r="F171">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G171">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H171">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I171">
+        <v>0.355916187536642</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2800</v>
+      </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
+      <c r="D172">
+        <v>0.71638695987654299</v>
+      </c>
+      <c r="E172">
+        <v>0.506457499124778</v>
+      </c>
+      <c r="F172">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G172">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H172">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I172">
+        <v>0.355916187536642</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2800</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>0.71638695987654299</v>
+      </c>
+      <c r="E173">
+        <v>0.506457499124778</v>
+      </c>
+      <c r="F173">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G173">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H173">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I173">
+        <v>0.355916187536642</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2800</v>
+      </c>
+      <c r="C174">
+        <v>30</v>
+      </c>
+      <c r="D174">
+        <v>0.71638695987654299</v>
+      </c>
+      <c r="E174">
+        <v>0.506457499124778</v>
+      </c>
+      <c r="F174">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G174">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H174">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I174">
+        <v>0.355916187536642</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2800</v>
+      </c>
+      <c r="C175">
+        <v>100</v>
+      </c>
+      <c r="D175">
+        <v>0.71638695987654299</v>
+      </c>
+      <c r="E175">
+        <v>0.506457499124778</v>
+      </c>
+      <c r="F175">
+        <v>0.67795138888888895</v>
+      </c>
+      <c r="G175">
+        <v>0.68229166666666696</v>
+      </c>
+      <c r="H175">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="I175">
+        <v>0.355916187536642</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2775</v>
+      </c>
+      <c r="C176">
+        <v>0.3</v>
+      </c>
+      <c r="D176">
+        <v>0.71306544174382802</v>
+      </c>
+      <c r="E176">
+        <v>0.48803490683592499</v>
+      </c>
+      <c r="F176">
+        <v>0.671875</v>
+      </c>
+      <c r="G176">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H176">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I176">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2775</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177">
+        <v>0.71306544174382802</v>
+      </c>
+      <c r="E177">
+        <v>0.48803490683592499</v>
+      </c>
+      <c r="F177">
+        <v>0.671875</v>
+      </c>
+      <c r="G177">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H177">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I177">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2775</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178">
+        <v>0.71306544174382802</v>
+      </c>
+      <c r="E178">
+        <v>0.48803490683592499</v>
+      </c>
+      <c r="F178">
+        <v>0.671875</v>
+      </c>
+      <c r="G178">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H178">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I178">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2775</v>
+      </c>
+      <c r="C179">
+        <v>10</v>
+      </c>
+      <c r="D179">
+        <v>0.71306544174382802</v>
+      </c>
+      <c r="E179">
+        <v>0.48803490683592499</v>
+      </c>
+      <c r="F179">
+        <v>0.671875</v>
+      </c>
+      <c r="G179">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H179">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I179">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2775</v>
+      </c>
+      <c r="C180">
+        <v>30</v>
+      </c>
+      <c r="D180">
+        <v>0.71306544174382802</v>
+      </c>
+      <c r="E180">
+        <v>0.48803490683592499</v>
+      </c>
+      <c r="F180">
+        <v>0.671875</v>
+      </c>
+      <c r="G180">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H180">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I180">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2775</v>
+      </c>
+      <c r="C181">
+        <v>100</v>
+      </c>
+      <c r="D181">
+        <v>0.71306544174382802</v>
+      </c>
+      <c r="E181">
+        <v>0.48803490683592499</v>
+      </c>
+      <c r="F181">
+        <v>0.671875</v>
+      </c>
+      <c r="G181">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="H181">
+        <v>0.68402777777777801</v>
+      </c>
+      <c r="I181">
+        <v>0.34385158189041198</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2750</v>
+      </c>
+      <c r="C182">
+        <v>0.3</v>
+      </c>
+      <c r="D182">
+        <v>0.71533504533179104</v>
+      </c>
+      <c r="E182">
+        <v>0.50422808329009094</v>
+      </c>
+      <c r="F182">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G182">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="H182">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I182">
+        <v>0.35243108668401602</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2750</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183">
+        <v>0.71533504533179104</v>
+      </c>
+      <c r="E183">
+        <v>0.50422808329009094</v>
+      </c>
+      <c r="F183">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G183">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="H183">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I183">
+        <v>0.35243108668401602</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2750</v>
+      </c>
+      <c r="C184">
+        <v>3</v>
+      </c>
+      <c r="D184">
+        <v>0.71533504533179104</v>
+      </c>
+      <c r="E184">
+        <v>0.50422808329009094</v>
+      </c>
+      <c r="F184">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G184">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="H184">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I184">
+        <v>0.35243108668401602</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2750</v>
+      </c>
+      <c r="C185">
+        <v>10</v>
+      </c>
+      <c r="D185">
+        <v>0.71533504533179104</v>
+      </c>
+      <c r="E185">
+        <v>0.50422808329009094</v>
+      </c>
+      <c r="F185">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G185">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="H185">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I185">
+        <v>0.35243108668401602</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2750</v>
+      </c>
+      <c r="C186">
+        <v>30</v>
+      </c>
+      <c r="D186">
+        <v>0.71533504533179104</v>
+      </c>
+      <c r="E186">
+        <v>0.50422808329009094</v>
+      </c>
+      <c r="F186">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G186">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="H186">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I186">
+        <v>0.35243108668401602</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2750</v>
+      </c>
+      <c r="C187">
+        <v>100</v>
+      </c>
+      <c r="D187">
+        <v>0.71533504533179104</v>
+      </c>
+      <c r="E187">
+        <v>0.50422808329009094</v>
+      </c>
+      <c r="F187">
+        <v>0.67621527777777801</v>
+      </c>
+      <c r="G187">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="H187">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="I187">
+        <v>0.35243108668401602</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2725</v>
+      </c>
+      <c r="C188">
+        <v>0.3</v>
+      </c>
+      <c r="D188">
+        <v>0.715757016782407</v>
+      </c>
+      <c r="E188">
+        <v>0.38028485133090001</v>
+      </c>
+      <c r="F188">
+        <v>0.671875</v>
+      </c>
+      <c r="G188">
+        <v>0.57118055555555602</v>
+      </c>
+      <c r="H188">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="I188">
+        <v>0.35094028722460102</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2725</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189">
+        <v>0.715757016782407</v>
+      </c>
+      <c r="E189">
+        <v>0.38028485133090001</v>
+      </c>
+      <c r="F189">
+        <v>0.671875</v>
+      </c>
+      <c r="G189">
+        <v>0.57118055555555602</v>
+      </c>
+      <c r="H189">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="I189">
+        <v>0.35094028722460102</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2725</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>0.715757016782407</v>
+      </c>
+      <c r="E190">
+        <v>0.38028485133090001</v>
+      </c>
+      <c r="F190">
+        <v>0.671875</v>
+      </c>
+      <c r="G190">
+        <v>0.57118055555555602</v>
+      </c>
+      <c r="H190">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="I190">
+        <v>0.35094028722460102</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2725</v>
+      </c>
+      <c r="C191">
+        <v>10</v>
+      </c>
+      <c r="D191">
+        <v>0.715757016782407</v>
+      </c>
+      <c r="E191">
+        <v>0.38028485133090001</v>
+      </c>
+      <c r="F191">
+        <v>0.671875</v>
+      </c>
+      <c r="G191">
+        <v>0.57118055555555602</v>
+      </c>
+      <c r="H191">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="I191">
+        <v>0.35094028722460102</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>2725</v>
+      </c>
+      <c r="C192">
+        <v>30</v>
+      </c>
+      <c r="D192">
+        <v>0.715757016782407</v>
+      </c>
+      <c r="E192">
+        <v>0.38028485133090001</v>
+      </c>
+      <c r="F192">
+        <v>0.671875</v>
+      </c>
+      <c r="G192">
+        <v>0.57118055555555602</v>
+      </c>
+      <c r="H192">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="I192">
+        <v>0.35094028722460102</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>2725</v>
+      </c>
+      <c r="C193">
+        <v>100</v>
+      </c>
+      <c r="D193">
+        <v>0.715757016782407</v>
+      </c>
+      <c r="E193">
+        <v>0.38028485133090001</v>
+      </c>
+      <c r="F193">
+        <v>0.671875</v>
+      </c>
+      <c r="G193">
+        <v>0.57118055555555602</v>
+      </c>
+      <c r="H193">
+        <v>0.77256944444444398</v>
+      </c>
+      <c r="I193">
+        <v>0.35094028722460102</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>2700</v>
+      </c>
+      <c r="C194">
+        <v>0.3</v>
+      </c>
+      <c r="D194">
+        <v>0.71799647955246904</v>
+      </c>
+      <c r="E194">
+        <v>0.38265854905803498</v>
+      </c>
+      <c r="F194">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G194">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="H194">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I194">
+        <v>0.35448513861070902</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>2700</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195">
+        <v>0.71799647955246904</v>
+      </c>
+      <c r="E195">
+        <v>0.38265854905803498</v>
+      </c>
+      <c r="F195">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G195">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="H195">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I195">
+        <v>0.35448513861070902</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2700</v>
+      </c>
+      <c r="C196">
+        <v>3</v>
+      </c>
+      <c r="D196">
+        <v>0.71799647955246904</v>
+      </c>
+      <c r="E196">
+        <v>0.38265854905803498</v>
+      </c>
+      <c r="F196">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G196">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="H196">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I196">
+        <v>0.35448513861070902</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2700</v>
+      </c>
+      <c r="C197">
+        <v>10</v>
+      </c>
+      <c r="D197">
+        <v>0.71799647955246904</v>
+      </c>
+      <c r="E197">
+        <v>0.38265854905803498</v>
+      </c>
+      <c r="F197">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G197">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="H197">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I197">
+        <v>0.35448513861070902</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2700</v>
+      </c>
+      <c r="C198">
+        <v>30</v>
+      </c>
+      <c r="D198">
+        <v>0.71799647955246904</v>
+      </c>
+      <c r="E198">
+        <v>0.38265854905803498</v>
+      </c>
+      <c r="F198">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G198">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="H198">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I198">
+        <v>0.35448513861070902</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2700</v>
+      </c>
+      <c r="C199">
+        <v>100</v>
+      </c>
+      <c r="D199">
+        <v>0.71799647955246904</v>
+      </c>
+      <c r="E199">
+        <v>0.38265854905803498</v>
+      </c>
+      <c r="F199">
+        <v>0.67361111111111105</v>
+      </c>
+      <c r="G199">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="H199">
+        <v>0.77430555555555602</v>
+      </c>
+      <c r="I199">
+        <v>0.35448513861070902</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2675</v>
+      </c>
+      <c r="C200">
+        <v>0.3</v>
+      </c>
+      <c r="D200">
+        <v>0.71811704282407296</v>
+      </c>
+      <c r="E200">
+        <v>0.40058243105351199</v>
+      </c>
+      <c r="F200">
+        <v>0.671875</v>
+      </c>
+      <c r="G200">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H200">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="I200">
+        <v>0.34972290236986803</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2675</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201">
+        <v>0.71811704282407296</v>
+      </c>
+      <c r="E201">
+        <v>0.40058243105351199</v>
+      </c>
+      <c r="F201">
+        <v>0.671875</v>
+      </c>
+      <c r="G201">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H201">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="I201">
+        <v>0.34972290236986803</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2675</v>
+      </c>
+      <c r="C202">
+        <v>3</v>
+      </c>
+      <c r="D202">
+        <v>0.71811704282407296</v>
+      </c>
+      <c r="E202">
+        <v>0.40058243105351199</v>
+      </c>
+      <c r="F202">
+        <v>0.671875</v>
+      </c>
+      <c r="G202">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H202">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="I202">
+        <v>0.34972290236986803</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2675</v>
+      </c>
+      <c r="C203">
+        <v>10</v>
+      </c>
+      <c r="D203">
+        <v>0.71811704282407296</v>
+      </c>
+      <c r="E203">
+        <v>0.40058243105351199</v>
+      </c>
+      <c r="F203">
+        <v>0.671875</v>
+      </c>
+      <c r="G203">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H203">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="I203">
+        <v>0.34972290236986803</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2675</v>
+      </c>
+      <c r="C204">
+        <v>30</v>
+      </c>
+      <c r="D204">
+        <v>0.71811704282407296</v>
+      </c>
+      <c r="E204">
+        <v>0.40058243105351199</v>
+      </c>
+      <c r="F204">
+        <v>0.671875</v>
+      </c>
+      <c r="G204">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H204">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="I204">
+        <v>0.34972290236986803</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2675</v>
+      </c>
+      <c r="C205">
+        <v>100</v>
+      </c>
+      <c r="D205">
+        <v>0.71811704282407296</v>
+      </c>
+      <c r="E205">
+        <v>0.40058243105351199</v>
+      </c>
+      <c r="F205">
+        <v>0.671875</v>
+      </c>
+      <c r="G205">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="H205">
+        <v>0.76388888888888895</v>
+      </c>
+      <c r="I205">
+        <v>0.34972290236986803</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2650</v>
+      </c>
+      <c r="C206">
+        <v>0.3</v>
+      </c>
+      <c r="D206">
+        <v>0.71690236786265404</v>
+      </c>
+      <c r="E206">
+        <v>0.50073777338178505</v>
+      </c>
+      <c r="F206">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="G206">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H206">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I206">
+        <v>0.336807585892898</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2650</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>0.71690236786265404</v>
+      </c>
+      <c r="E207">
+        <v>0.50073777338178505</v>
+      </c>
+      <c r="F207">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="G207">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H207">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I207">
+        <v>0.336807585892898</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2650</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208">
+        <v>0.71690236786265404</v>
+      </c>
+      <c r="E208">
+        <v>0.50073777338178505</v>
+      </c>
+      <c r="F208">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="G208">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H208">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I208">
+        <v>0.336807585892898</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2650</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+      <c r="D209">
+        <v>0.71690236786265404</v>
+      </c>
+      <c r="E209">
+        <v>0.50073777338178505</v>
+      </c>
+      <c r="F209">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="G209">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H209">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I209">
+        <v>0.336807585892898</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2650</v>
+      </c>
+      <c r="C210">
+        <v>30</v>
+      </c>
+      <c r="D210">
+        <v>0.71690236786265404</v>
+      </c>
+      <c r="E210">
+        <v>0.50073777338178505</v>
+      </c>
+      <c r="F210">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="G210">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H210">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I210">
+        <v>0.336807585892898</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2650</v>
+      </c>
+      <c r="C211">
+        <v>100</v>
+      </c>
+      <c r="D211">
+        <v>0.71690236786265404</v>
+      </c>
+      <c r="E211">
+        <v>0.50073777338178505</v>
+      </c>
+      <c r="F211">
+        <v>0.66840277777777801</v>
+      </c>
+      <c r="G211">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H211">
+        <v>0.67013888888888895</v>
+      </c>
+      <c r="I211">
+        <v>0.336807585892898</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2625</v>
+      </c>
+      <c r="C212">
+        <v>0.3</v>
+      </c>
+      <c r="D212">
+        <v>0.71820445119598697</v>
+      </c>
+      <c r="E212">
+        <v>0.34277062973454198</v>
+      </c>
+      <c r="F212">
+        <v>0.66927083333333304</v>
+      </c>
+      <c r="G212">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="H212">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I212">
+        <v>0.35081078860555998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2625</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213">
+        <v>0.71820445119598697</v>
+      </c>
+      <c r="E213">
+        <v>0.34277062973454198</v>
+      </c>
+      <c r="F213">
+        <v>0.66927083333333304</v>
+      </c>
+      <c r="G213">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="H213">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I213">
+        <v>0.35081078860555998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2625</v>
+      </c>
+      <c r="C214">
+        <v>3</v>
+      </c>
+      <c r="D214">
+        <v>0.71820445119598697</v>
+      </c>
+      <c r="E214">
+        <v>0.34277062973454198</v>
+      </c>
+      <c r="F214">
+        <v>0.66927083333333304</v>
+      </c>
+      <c r="G214">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="H214">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I214">
+        <v>0.35081078860555998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2625</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+      <c r="D215">
+        <v>0.71820445119598697</v>
+      </c>
+      <c r="E215">
+        <v>0.34277062973454198</v>
+      </c>
+      <c r="F215">
+        <v>0.66927083333333304</v>
+      </c>
+      <c r="G215">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="H215">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I215">
+        <v>0.35081078860555998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2625</v>
+      </c>
+      <c r="C216">
+        <v>30</v>
+      </c>
+      <c r="D216">
+        <v>0.71820445119598697</v>
+      </c>
+      <c r="E216">
+        <v>0.34277062973454198</v>
+      </c>
+      <c r="F216">
+        <v>0.66927083333333304</v>
+      </c>
+      <c r="G216">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="H216">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I216">
+        <v>0.35081078860555998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2625</v>
+      </c>
+      <c r="C217">
+        <v>100</v>
+      </c>
+      <c r="D217">
+        <v>0.71820445119598697</v>
+      </c>
+      <c r="E217">
+        <v>0.34277062973454198</v>
+      </c>
+      <c r="F217">
+        <v>0.66927083333333304</v>
+      </c>
+      <c r="G217">
+        <v>0.53819444444444398</v>
+      </c>
+      <c r="H217">
+        <v>0.80034722222222199</v>
+      </c>
+      <c r="I217">
+        <v>0.35081078860555998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>2600</v>
+      </c>
+      <c r="C218">
+        <v>0.3</v>
+      </c>
+      <c r="D218">
+        <v>0.715536988811728</v>
+      </c>
+      <c r="E218">
+        <v>0.36959290238880399</v>
+      </c>
+      <c r="F218">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G218">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="H218">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="I218">
+        <v>0.339963689817319</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>2600</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>0.715536988811728</v>
+      </c>
+      <c r="E219">
+        <v>0.36959290238880399</v>
+      </c>
+      <c r="F219">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G219">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="H219">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="I219">
+        <v>0.339963689817319</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>2600</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220">
+        <v>0.715536988811728</v>
+      </c>
+      <c r="E220">
+        <v>0.36959290238880399</v>
+      </c>
+      <c r="F220">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G220">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="H220">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="I220">
+        <v>0.339963689817319</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>2600</v>
+      </c>
+      <c r="C221">
+        <v>10</v>
+      </c>
+      <c r="D221">
+        <v>0.715536988811728</v>
+      </c>
+      <c r="E221">
+        <v>0.36959290238880399</v>
+      </c>
+      <c r="F221">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G221">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="H221">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="I221">
+        <v>0.339963689817319</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>2600</v>
+      </c>
+      <c r="C222">
+        <v>30</v>
+      </c>
+      <c r="D222">
+        <v>0.715536988811728</v>
+      </c>
+      <c r="E222">
+        <v>0.36959290238880399</v>
+      </c>
+      <c r="F222">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G222">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="H222">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="I222">
+        <v>0.339963689817319</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>2600</v>
+      </c>
+      <c r="C223">
+        <v>100</v>
+      </c>
+      <c r="D223">
+        <v>0.715536988811728</v>
+      </c>
+      <c r="E223">
+        <v>0.36959290238880399</v>
+      </c>
+      <c r="F223">
+        <v>0.66579861111111105</v>
+      </c>
+      <c r="G223">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="H223">
+        <v>0.77604166666666696</v>
+      </c>
+      <c r="I223">
+        <v>0.339963689817319</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>2575</v>
+      </c>
+      <c r="C224">
+        <v>0.3</v>
+      </c>
+      <c r="D224">
+        <v>0.71526270736882802</v>
+      </c>
+      <c r="E224">
+        <v>0.58813142774689497</v>
+      </c>
+      <c r="F224">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="G224">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H224">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="I224">
+        <v>0.326239485067292</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>2575</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225">
+        <v>0.71526270736882802</v>
+      </c>
+      <c r="E225">
+        <v>0.58813142774689497</v>
+      </c>
+      <c r="F225">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="G225">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H225">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="I225">
+        <v>0.326239485067292</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>2575</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226">
+        <v>0.71526270736882802</v>
+      </c>
+      <c r="E226">
+        <v>0.58813142774689497</v>
+      </c>
+      <c r="F226">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="G226">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H226">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="I226">
+        <v>0.326239485067292</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>2575</v>
+      </c>
+      <c r="C227">
+        <v>10</v>
+      </c>
+      <c r="D227">
+        <v>0.71526270736882802</v>
+      </c>
+      <c r="E227">
+        <v>0.58813142774689497</v>
+      </c>
+      <c r="F227">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="G227">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H227">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="I227">
+        <v>0.326239485067292</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>2575</v>
+      </c>
+      <c r="C228">
+        <v>30</v>
+      </c>
+      <c r="D228">
+        <v>0.71526270736882802</v>
+      </c>
+      <c r="E228">
+        <v>0.58813142774689497</v>
+      </c>
+      <c r="F228">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="G228">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H228">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="I228">
+        <v>0.326239485067292</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>2575</v>
+      </c>
+      <c r="C229">
+        <v>100</v>
+      </c>
+      <c r="D229">
+        <v>0.71526270736882802</v>
+      </c>
+      <c r="E229">
+        <v>0.58813142774689497</v>
+      </c>
+      <c r="F229">
+        <v>0.66145833333333304</v>
+      </c>
+      <c r="G229">
+        <v>0.73263888888888895</v>
+      </c>
+      <c r="H229">
+        <v>0.59027777777777801</v>
+      </c>
+      <c r="I229">
+        <v>0.326239485067292</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230">
+        <v>2550</v>
+      </c>
+      <c r="C230">
+        <v>0.3</v>
+      </c>
+      <c r="D230">
+        <v>0.71194420331790198</v>
+      </c>
+      <c r="E230">
+        <v>0.48426684728046199</v>
+      </c>
+      <c r="F230">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G230">
+        <v>0.640625</v>
+      </c>
+      <c r="H230">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I230">
+        <v>0.316162867850244</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>2550</v>
+      </c>
+      <c r="C231">
+        <v>1</v>
+      </c>
+      <c r="D231">
+        <v>0.71194420331790198</v>
+      </c>
+      <c r="E231">
+        <v>0.48426684728046199</v>
+      </c>
+      <c r="F231">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G231">
+        <v>0.640625</v>
+      </c>
+      <c r="H231">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I231">
+        <v>0.316162867850244</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>2550</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232">
+        <v>0.71194420331790198</v>
+      </c>
+      <c r="E232">
+        <v>0.48426684728046199</v>
+      </c>
+      <c r="F232">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G232">
+        <v>0.640625</v>
+      </c>
+      <c r="H232">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I232">
+        <v>0.316162867850244</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>2550</v>
+      </c>
+      <c r="C233">
+        <v>10</v>
+      </c>
+      <c r="D233">
+        <v>0.71194420331790198</v>
+      </c>
+      <c r="E233">
+        <v>0.48426684728046199</v>
+      </c>
+      <c r="F233">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G233">
+        <v>0.640625</v>
+      </c>
+      <c r="H233">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I233">
+        <v>0.316162867850244</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>2550</v>
+      </c>
+      <c r="C234">
+        <v>30</v>
+      </c>
+      <c r="D234">
+        <v>0.71194420331790198</v>
+      </c>
+      <c r="E234">
+        <v>0.48426684728046199</v>
+      </c>
+      <c r="F234">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G234">
+        <v>0.640625</v>
+      </c>
+      <c r="H234">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I234">
+        <v>0.316162867850244</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>2550</v>
+      </c>
+      <c r="C235">
+        <v>100</v>
+      </c>
+      <c r="D235">
+        <v>0.71194420331790198</v>
+      </c>
+      <c r="E235">
+        <v>0.48426684728046199</v>
+      </c>
+      <c r="F235">
+        <v>0.65798611111111105</v>
+      </c>
+      <c r="G235">
+        <v>0.640625</v>
+      </c>
+      <c r="H235">
+        <v>0.67534722222222199</v>
+      </c>
+      <c r="I235">
+        <v>0.316162867850244</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>2525</v>
+      </c>
+      <c r="C236">
+        <v>0.3</v>
+      </c>
+      <c r="D236">
+        <v>0.70692274305555602</v>
+      </c>
+      <c r="E236">
+        <v>0.46443947724836598</v>
+      </c>
+      <c r="F236">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G236">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H236">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I236">
+        <v>0.32014188637227697</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>2525</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>0.70692274305555602</v>
+      </c>
+      <c r="E237">
+        <v>0.46443947724836598</v>
+      </c>
+      <c r="F237">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G237">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H237">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I237">
+        <v>0.32014188637227697</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>2525</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238">
+        <v>0.70692274305555602</v>
+      </c>
+      <c r="E238">
+        <v>0.46443947724836598</v>
+      </c>
+      <c r="F238">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G238">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H238">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I238">
+        <v>0.32014188637227697</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>2525</v>
+      </c>
+      <c r="C239">
+        <v>10</v>
+      </c>
+      <c r="D239">
+        <v>0.70692274305555602</v>
+      </c>
+      <c r="E239">
+        <v>0.46443947724836598</v>
+      </c>
+      <c r="F239">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G239">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H239">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I239">
+        <v>0.32014188637227697</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>2525</v>
+      </c>
+      <c r="C240">
+        <v>30</v>
+      </c>
+      <c r="D240">
+        <v>0.70692274305555602</v>
+      </c>
+      <c r="E240">
+        <v>0.46443947724836598</v>
+      </c>
+      <c r="F240">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G240">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H240">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I240">
+        <v>0.32014188637227697</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>2525</v>
+      </c>
+      <c r="C241">
+        <v>100</v>
+      </c>
+      <c r="D241">
+        <v>0.70692274305555602</v>
+      </c>
+      <c r="E241">
+        <v>0.46443947724836598</v>
+      </c>
+      <c r="F241">
+        <v>0.65972222222222199</v>
+      </c>
+      <c r="G241">
+        <v>0.62673611111111105</v>
+      </c>
+      <c r="H241">
+        <v>0.69270833333333304</v>
+      </c>
+      <c r="I241">
+        <v>0.32014188637227697</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="B242">
+        <v>2500</v>
+      </c>
+      <c r="C242">
+        <v>0.3</v>
+      </c>
+      <c r="D242">
+        <v>0.70804096739969102</v>
+      </c>
+      <c r="E242">
+        <v>0.40425426589409702</v>
+      </c>
+      <c r="F242">
+        <v>0.66059027777777801</v>
+      </c>
+      <c r="G242">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="H242">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I242">
+        <v>0.325265455675191</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="B243">
+        <v>2500</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>0.70804096739969102</v>
+      </c>
+      <c r="E243">
+        <v>0.40425426589409702</v>
+      </c>
+      <c r="F243">
+        <v>0.66059027777777801</v>
+      </c>
+      <c r="G243">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="H243">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I243">
+        <v>0.325265455675191</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="B244">
+        <v>2500</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244">
+        <v>0.70804096739969102</v>
+      </c>
+      <c r="E244">
+        <v>0.40425426589409702</v>
+      </c>
+      <c r="F244">
+        <v>0.66059027777777801</v>
+      </c>
+      <c r="G244">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="H244">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I244">
+        <v>0.325265455675191</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="B245">
+        <v>2500</v>
+      </c>
+      <c r="C245">
+        <v>10</v>
+      </c>
+      <c r="D245">
+        <v>0.70804096739969102</v>
+      </c>
+      <c r="E245">
+        <v>0.40425426589409702</v>
+      </c>
+      <c r="F245">
+        <v>0.66059027777777801</v>
+      </c>
+      <c r="G245">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="H245">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I245">
+        <v>0.325265455675191</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="B246">
+        <v>2500</v>
+      </c>
+      <c r="C246">
+        <v>30</v>
+      </c>
+      <c r="D246">
+        <v>0.70804096739969102</v>
+      </c>
+      <c r="E246">
+        <v>0.40425426589409702</v>
+      </c>
+      <c r="F246">
+        <v>0.66059027777777801</v>
+      </c>
+      <c r="G246">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="H246">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I246">
+        <v>0.325265455675191</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="B247">
+        <v>2500</v>
+      </c>
+      <c r="C247">
+        <v>100</v>
+      </c>
+      <c r="D247">
+        <v>0.70804096739969102</v>
+      </c>
+      <c r="E247">
+        <v>0.40425426589409702</v>
+      </c>
+      <c r="F247">
+        <v>0.66059027777777801</v>
+      </c>
+      <c r="G247">
+        <v>0.58159722222222199</v>
+      </c>
+      <c r="H247">
+        <v>0.73958333333333304</v>
+      </c>
+      <c r="I247">
+        <v>0.325265455675191</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J163">
+  <sortState ref="A2:J247">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/R/Magnan/PerfSearch_Regression_nGDip25.xlsx
+++ b/Code/R/Magnan/PerfSearch_Regression_nGDip25.xlsx
@@ -852,23 +852,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="102685696"/>
-        <c:axId val="102724352"/>
+        <c:axId val="39426688"/>
+        <c:axId val="39650816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102685696"/>
+        <c:axId val="39426688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102724352"/>
+        <c:crossAx val="39650816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102724352"/>
+        <c:axId val="39650816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +876,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102685696"/>
+        <c:crossAx val="39426688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -889,7 +889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1422,8 +1422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
